--- a/regions/7/soflis meurneoba/3. pirutkvis suladoba.xlsx
+++ b/regions/7/soflis meurneoba/3. pirutkvis suladoba.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ITSIKHELASHVILI\ENV_Shared\რეგიონული სტატისტიკის პორტალი\რაჭა-ლეჩხუმი და ქვემო სვანეთი\GEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsmelashvili\Desktop\რეგიონული სტატისტიკის პორტალი_2023\რაჭა-ლეჩხუმი და ქვემო სვანეთი\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="14">
   <si>
     <t>-</t>
   </si>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -180,7 +180,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -198,15 +198,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -239,14 +230,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -553,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -566,28 +557,30 @@
     <col min="18" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:19" ht="30" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="2">
         <v>2006</v>
@@ -637,8 +630,14 @@
       <c r="Q2" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1">
+      <c r="R2" s="2">
+        <v>2022</v>
+      </c>
+      <c r="S2" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -690,8 +689,14 @@
       <c r="Q3" s="3">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1">
+      <c r="R3" s="3">
+        <v>13.7</v>
+      </c>
+      <c r="S3" s="3">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -743,8 +748,14 @@
       <c r="Q4" s="3">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1">
+      <c r="R4" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="S4" s="3">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -796,8 +807,12 @@
       <c r="Q5" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1">
+      <c r="R5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -849,8 +864,12 @@
       <c r="Q6" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1">
+      <c r="R6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -902,8 +921,12 @@
       <c r="Q7" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1">
+      <c r="R7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -955,8 +978,12 @@
       <c r="Q8" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1">
+      <c r="R8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1035,12 @@
       <c r="Q9" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1">
+      <c r="R9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -1061,8 +1092,12 @@
       <c r="Q10" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1">
+      <c r="R10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -1114,8 +1149,14 @@
       <c r="Q11" s="3">
         <v>38.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1">
+      <c r="R11" s="3">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="S11" s="3">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1167,54 +1208,58 @@
       <c r="Q12" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="9" t="s">
+      <c r="R12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-    </row>
-    <row r="14" spans="1:17" s="7" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A14" s="10" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="1:19" s="7" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A13:Q13"/>
     <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
